--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1089700.473126054</v>
+        <v>1066838.358788885</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7226289.925414165</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3187716.885615898</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10392167.78907094</v>
+        <v>11502486.99834478</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>107.5648922361047</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>105.137467992605</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>296.7607853996625</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>135.6089145134688</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>153.055538822593</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>201.66221878632</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>148.5873298926981</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>142.3844270995955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>84.22290965229026</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249715</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>90.41948680756549</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.4644487916328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>106.5867442799587</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="23">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>15.44847849679241</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>176.7697821123584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>23.35772589727851</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>81.72898226868554</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>6.380068175847634</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>106.5867442799587</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>15.0743711067587</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.9112437681536</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>132.5373350448695</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1704.527073573122</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C2" t="n">
-        <v>1704.527073573122</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1704.527073573122</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1318.738820974878</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>907.7529161852704</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>489.7891080834572</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>162.5943881194601</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y2" t="n">
-        <v>1704.527073573122</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,13 +4415,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005402</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>764.6872557005402</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>353.7013509109326</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776797</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1933911785532</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2074863889456</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="9">
@@ -4895,10 +4895,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482876</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>377.5443364482876</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>377.5443364482876</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>208.54453618662</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>354.7307713949787</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>1009.454103530278</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1460.488316778687</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>3121.906610713899</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3121.906610713899</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3121.906610713899</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>391.866433243363</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>391.866433243363</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>391.866433243363</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1637.877378051532</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1986.901740067214</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1617.939223126803</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810551</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1586.925993846822</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2667.236715577529</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>1986.901740067214</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>1986.901740067214</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
@@ -5518,25 +5518,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866375</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193956</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420603</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5612,16 +5612,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5706,19 +5706,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.890966501056</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1542.890966501056</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>1314.901415603039</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.311063288258</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839441</v>
@@ -5758,16 +5758,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175504</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3027.596327402151</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3907.560977731605</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107236</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3623.318032432792</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>3623.318032432792</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>3623.318032432792</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004074</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.7687655736</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699243</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493357</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>3623.318032432792</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>3623.318032432792</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>3623.318032432792</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5992,25 +5992,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866375</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139992</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.662598458018</v>
+        <v>425.7583423057196</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>425.7583423057196</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>425.7583423057196</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W25" t="n">
-        <v>1701.658977898817</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.103642431788</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y25" t="n">
-        <v>1302.311063288258</v>
+        <v>425.7583423057196</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,13 +6211,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6229,16 +6229,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>818.2062848686767</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1682.725100522031</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6262,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>438.2075193111406</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>269.2713363832337</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>119.154696970898</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>119.154696970898</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>119.154696970898</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>119.154696970898</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>619.8559841413803</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>619.8559841413803</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6466,16 +6466,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1866.513008862232</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1866.513008862232</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6703,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>818.2062848686767</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1682.725100522031</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,34 +6779,34 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>492.7083461157126</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C34" t="n">
-        <v>410.1538185715858</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D34" t="n">
-        <v>410.1538185715858</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839441</v>
@@ -6888,22 +6888,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024461</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>895.1493900894825</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y34" t="n">
-        <v>674.3568109459524</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,67 +6922,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>419.3276555045771</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>753.1470291944236</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1617.665844847778</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2151.197749519703</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3130.95002174635</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3942.370854773035</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>3773.434671845128</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>3623.318032432792</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>4344.811898746804</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>4344.811898746804</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>4344.811898746804</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>4344.811898746804</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>4344.811898746804</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>4124.019319603274</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>818.2062848686767</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1682.725100522031</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3623.318032432792</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>3623.318032432792</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>3623.318032432792</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004074</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.7687655736</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699243</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493357</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>3623.318032432792</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>3623.318032432792</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3623.318032432792</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7417,46 +7417,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>245.6776738607301</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C43" t="n">
-        <v>245.6776738607301</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1749.430944449955</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1527.664329019482</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1238.561462145125</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>983.8769739392383</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>694.4598039022776</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>466.4702530042603</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>245.6776738607301</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7654,46 +7654,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1023.336921276364</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C46" t="n">
-        <v>854.4007383484569</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7839,19 +7839,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>1943.184686185112</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>1653.767516148151</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>1425.777965250134</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.985386106604</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>71.00061210864527</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>29.61882225791987</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>67.53663776704161</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,10 +9415,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
-        <v>170.1140909277296</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>67.53663776704161</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>201.9664098701115</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>258.6211785616921</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>201.9664098701115</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>136.2499899971285</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>32.86979469803765</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,16 +11074,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>272.8828616575881</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.3664240087566</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22792,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>117.0233846211325</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>117.5062691663786</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23184,25 +23184,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.115350019202168</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>49.33295317258202</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>17.43847836633017</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>83.3252282894417</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>285.5081910261788</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.1421360569658</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>58.19598621064686</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>206.120204560462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>179.9362540566323</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>130.9854841497768</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>48.93987327667872</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>121.3972890170423</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>85.51783882994229</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>179.9362540566323</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>152.1724499918691</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>73.85778156328827</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>34.7094860537583</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26079,10 +26079,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755971.6307849309</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755971.630784931</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755971.6307849309</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822662.6452852964</v>
+        <v>977294.0982740738</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822662.6452852964</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680127</v>
+        <v>436789.9655756814</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680127</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="G2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="H2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="I2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="J2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="K2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="L2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="M2" t="n">
         <v>436789.9655756816</v>
       </c>
-      <c r="M2" t="n">
-        <v>436789.9655756815</v>
-      </c>
       <c r="N2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="O2" t="n">
         <v>436789.9655756817</v>
       </c>
       <c r="P2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503536</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091489</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254669</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>87383.1396189899</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62518.47524617217</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>62518.47524617217</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>62518.47524617217</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-417277.5615067926</v>
+        <v>-422318.4897803295</v>
       </c>
       <c r="C6" t="n">
-        <v>172690.3177077519</v>
+        <v>167649.3894342149</v>
       </c>
       <c r="D6" t="n">
-        <v>172690.3177077518</v>
+        <v>167649.3894342149</v>
       </c>
       <c r="E6" t="n">
-        <v>-323060.6990257272</v>
+        <v>-412733.6452486907</v>
       </c>
       <c r="F6" t="n">
-        <v>295899.6169246264</v>
+        <v>314643.768744716</v>
       </c>
       <c r="G6" t="n">
-        <v>215792.3149660592</v>
+        <v>314643.7687447164</v>
       </c>
       <c r="H6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="I6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447162</v>
       </c>
       <c r="J6" t="n">
-        <v>138892.5044543813</v>
+        <v>138220.5495521232</v>
       </c>
       <c r="K6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="L6" t="n">
-        <v>315315.7236469742</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="M6" t="n">
-        <v>276162.2408744274</v>
+        <v>185001.4539057713</v>
       </c>
       <c r="N6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="O6" t="n">
-        <v>227932.5840279843</v>
+        <v>314643.7687447162</v>
       </c>
       <c r="P6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447161</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477373</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477372</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>281.1004706634486</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>234.1221861650003</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>158.9207969366492</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>261.7876130773578</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502522</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>404.7279243224421</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35907,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,10 +36135,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
-        <v>568.8760771471015</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36360,7 +36360,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>404.7279243224421</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>539.157696425512</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36834,19 +36834,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>766.6741794499112</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37071,19 +37071,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>539.157696425512</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>327.0369909658411</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37314,13 +37314,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>370.0610812534381</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37785,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37794,16 +37794,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>671.6448478769599</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1066838.358788885</v>
+        <v>1085237.625530165</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>7226289.925414165</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>3187716.885615899</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11502486.99834478</v>
+        <v>10392167.78907094</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>180.7872189079535</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>105.137467992605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>205.3743261851594</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>301.5311953861749</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>135.6089145134688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>295.9408816142891</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>206.1018171592638</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.46389722690856</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>56.95878470059998</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>148.5873298926981</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>95.54245596842112</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>98.46483191978946</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249715</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>193.2607248976446</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>90.41948680756549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>74.93758780518893</v>
       </c>
     </row>
     <row r="20">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>15.44847849679241</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>37.38100496017498</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>51.78026354199407</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>163.689844124971</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>23.92604697627053</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>6.380068175847634</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>167.2829751020668</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>15.0743711067587</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>132.5373350448695</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.28280651916072</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2295.901071558009</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>1964.838184214438</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4421,7 +4421,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1426.498002692507</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1036.358670716696</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.48357412947</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C8" t="n">
-        <v>1662.48357412947</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="D8" t="n">
-        <v>1662.48357412947</v>
+        <v>975.109608078832</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>589.3213554805877</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>950.1045973369964</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>950.1045973369964</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>539.1186925473889</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>124.0462423923854</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>354.7307713949787</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>1009.454103530278</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1460.488316778687</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2439.038619608516</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2985.817436667298</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996753</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.866433243363</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>391.866433243363</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>391.866433243363</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>391.866433243363</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>391.866433243363</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1609.020401376785</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1319.603231339825</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.866433243363</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>451.845814427773</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846822</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518747</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577529</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906984</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>2325.284615269147</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>1951.818857008067</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>1951.818857008067</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089893</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320238</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931531</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.7880996267</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208131</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838525</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858352</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.904311342305</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839441</v>
@@ -5518,25 +5518,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>685.1208104866375</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1549.639626139992</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5612,16 +5612,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>481.6968904858347</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="C19" t="n">
-        <v>481.6968904858347</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.6968904858347</v>
+        <v>819.454856952928</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5779,25 +5779,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839441</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="23">
@@ -5968,22 +5968,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
@@ -5992,16 +5992,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>786.6724891157187</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>425.7583423057196</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>425.7583423057196</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>425.7583423057196</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
         <v>263.2638710736754</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>1163.957642384228</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>874.540472347267</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>646.5509214492497</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.7583423057196</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320242</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>780.837176703125</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>611.9009937752181</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>461.7843543628824</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>461.7843543628824</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839441</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>962.4856415333647</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468568</v>
@@ -6542,19 +6542,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.9043113423046</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="C31" t="n">
-        <v>260.9043113423046</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D31" t="n">
-        <v>260.9043113423046</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E31" t="n">
-        <v>260.9043113423046</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>260.9043113423046</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839441</v>
@@ -6654,19 +6654,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>1060.216927397152</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>1036.049203178697</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6703,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L32" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6770,22 +6770,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>270.9417306852383</v>
+        <v>875.4238276939707</v>
       </c>
       <c r="C34" t="n">
-        <v>102.0055477573314</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D34" t="n">
-        <v>102.0055477573314</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E34" t="n">
-        <v>102.0055477573314</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F34" t="n">
-        <v>102.0055477573314</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6858,10 +6858,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570255</v>
+        <v>1505.854422565758</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590082</v>
+        <v>1277.86487166774</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.5901955154781</v>
+        <v>1057.07229252421</v>
       </c>
     </row>
     <row r="35">
@@ -6916,22 +6916,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6964,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7192,34 +7192,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,58 +7387,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2047.844055175504</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N41" t="n">
-        <v>3027.596327402151</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O41" t="n">
-        <v>3530.568798281487</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.9043113423046</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C43" t="n">
-        <v>245.6776738607302</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7666,34 +7666,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.3568109459524</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C46" t="n">
-        <v>540.4807149410336</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>305.7002480175677</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7836,22 +7836,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894825</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.3568109459524</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
   </sheetData>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.00061210864527</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225791987</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>67.53663776704161</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>170.1140909277296</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,13 +10357,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>201.9664098701128</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>272.8828616575881</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>70.43694860033577</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22755,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>19.66077927292486</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>63.74169638483266</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22837,16 +22837,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>200.7742285824476</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>96.01048066168093</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>237.6489796867205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>17.43847836633017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>156.5951873554069</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>250.7761367976236</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.1421360569658</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>93.26227343894638</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>58.19598621064686</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>143.6470655469059</v>
       </c>
     </row>
     <row r="20">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>31.95930209741357</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>130.9854841497768</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>182.1679443159942</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>93.64078448093719</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.335964134057178</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>194.6586063758243</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>159.6457400831806</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>119.2400232345242</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>152.1724499918691</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>31.95930209741357</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.7094860537583</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>102.7430017398675</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26076,7 +26076,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1047255.490584253</v>
+        <v>755971.630784931</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1047255.490584253</v>
+        <v>755971.6307849309</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1047255.490584253</v>
+        <v>755971.6307849309</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>977294.0982740738</v>
+        <v>822662.6452852963</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977294.0982740737</v>
+        <v>822662.6452852963</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740736</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740736</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740738</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173336</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
-        <v>436789.9655756814</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="F2" t="n">
-        <v>436789.9655756815</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="G2" t="n">
         <v>436789.9655756816</v>
@@ -26334,10 +26334,10 @@
         <v>436789.9655756815</v>
       </c>
       <c r="I2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="J2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="K2" t="n">
         <v>436789.9655756815</v>
@@ -26346,16 +26346,16 @@
         <v>436789.9655756815</v>
       </c>
       <c r="M2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="N2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="O2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="P2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>618960.3159503535</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>99523.40868091492</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>39153.48277254685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>87383.13961898992</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277315</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.7236749938</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499381</v>
@@ -26444,22 +26444,22 @@
         <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="P4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422318.4897803295</v>
+        <v>-417884.4028813745</v>
       </c>
       <c r="C6" t="n">
-        <v>167649.3894342149</v>
+        <v>172083.4763331698</v>
       </c>
       <c r="D6" t="n">
-        <v>167649.3894342149</v>
+        <v>172083.4763331698</v>
       </c>
       <c r="E6" t="n">
-        <v>-412733.6452486907</v>
+        <v>-323408.3179555332</v>
       </c>
       <c r="F6" t="n">
-        <v>314643.768744716</v>
+        <v>295551.9979948203</v>
       </c>
       <c r="G6" t="n">
-        <v>314643.7687447164</v>
+        <v>215725.1194758335</v>
       </c>
       <c r="H6" t="n">
-        <v>314643.7687447161</v>
+        <v>315248.5281567483</v>
       </c>
       <c r="I6" t="n">
-        <v>314643.7687447162</v>
+        <v>315248.5281567483</v>
       </c>
       <c r="J6" t="n">
-        <v>138220.5495521232</v>
+        <v>138825.3089641553</v>
       </c>
       <c r="K6" t="n">
-        <v>314643.7687447161</v>
+        <v>315248.5281567483</v>
       </c>
       <c r="L6" t="n">
-        <v>314643.7687447161</v>
+        <v>315248.5281567484</v>
       </c>
       <c r="M6" t="n">
-        <v>185001.4539057713</v>
+        <v>276095.0453842014</v>
       </c>
       <c r="N6" t="n">
-        <v>314643.7687447161</v>
+        <v>315248.5281567483</v>
       </c>
       <c r="O6" t="n">
-        <v>314643.7687447162</v>
+        <v>227865.3885377584</v>
       </c>
       <c r="P6" t="n">
-        <v>314643.7687447161</v>
+        <v>315248.5281567483</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26971,28 +26971,28 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>157.1141826477369</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>157.1141826477369</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>281.1004706634486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>234.1221861650003</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.9207969366492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>85.98948845797264</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7829238717193</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32323,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34789,10 +34789,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>261.7876130773578</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502522</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>404.7279243224421</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35907,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>507.3053774831301</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>740.8875257003393</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>671.6448478769599</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
